--- a/Lab5/Lab 5 SAWA Wednesday.xlsx
+++ b/Lab5/Lab 5 SAWA Wednesday.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6CECB8-0476-4260-85F6-5CB507EB20BA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14895" windowHeight="8550" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="theory" sheetId="1" r:id="rId1"/>
     <sheet name="simulation" sheetId="2" r:id="rId2"/>
     <sheet name="summary" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
   <si>
     <t>Insurance coverage:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,22 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P*C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P*C_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_c*C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pc*C_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Replace notation with real probability</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,10 +130,6 @@
   </si>
   <si>
     <t>Table 5.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cover or not</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -241,23 +220,32 @@
   <si>
     <t>Company Profit</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>premium</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>loss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -266,34 +254,34 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -456,7 +444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -505,14 +493,36 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -520,47 +530,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1483,20 +1472,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="10.08203125" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.9140625" customWidth="1"/>
-    <col min="13" max="13" width="12.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:14">
@@ -1508,20 +1497,20 @@
       </c>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="6">
         <v>3000</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
       <c r="L4" s="6" t="s">
         <v>11</v>
       </c>
@@ -1530,20 +1519,20 @@
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="6">
         <v>350</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
       <c r="L5" s="6" t="s">
         <v>12</v>
       </c>
@@ -1552,27 +1541,27 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26" t="s">
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
       <c r="L7" s="6" t="s">
         <v>16</v>
       </c>
@@ -1581,13 +1570,13 @@
       </c>
     </row>
     <row r="8" spans="2:14">
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
       <c r="L8" s="6" t="s">
         <v>17</v>
       </c>
@@ -1603,117 +1592,164 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
+      <c r="B10" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
       <c r="K10" t="s">
-        <v>30</v>
+        <v>50</v>
+      </c>
+      <c r="L10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="2:14">
       <c r="F11" s="5"/>
-      <c r="G11" s="10" t="str">
-        <f>L5</f>
-        <v>C</v>
-      </c>
-      <c r="H11" s="23" t="s">
+      <c r="G11" s="10">
+        <f>M5</f>
+        <v>0.96</v>
+      </c>
+      <c r="H11" s="26" t="s">
         <v>5</v>
       </c>
       <c r="I11" s="24"/>
-      <c r="J11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="12"/>
+      <c r="J11" s="11">
+        <f>M4*M5</f>
+        <v>0.91199999999999992</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>350</v>
+      </c>
+      <c r="M11">
+        <f>K11+L11</f>
+        <v>350</v>
+      </c>
     </row>
     <row r="12" spans="2:14">
-      <c r="D12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="31" t="s">
+      <c r="D12" s="10">
+        <f>M4</f>
+        <v>0.95</v>
+      </c>
+      <c r="E12" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="30"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="2:14">
       <c r="F13" s="5"/>
-      <c r="G13" s="10" t="str">
-        <f>L8</f>
-        <v>C_c</v>
-      </c>
-      <c r="H13" s="23" t="s">
+      <c r="G13" s="10">
+        <f>M8</f>
+        <v>0.04</v>
+      </c>
+      <c r="H13" s="26" t="s">
         <v>4</v>
       </c>
       <c r="I13" s="24"/>
-      <c r="J13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="12"/>
+      <c r="J13" s="10">
+        <f>M4*M8</f>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="K13" s="12">
+        <v>-3000</v>
+      </c>
+      <c r="L13">
+        <v>350</v>
+      </c>
+      <c r="M13">
+        <f>K13+L13</f>
+        <v>-2650</v>
+      </c>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
+      <c r="B14" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
     </row>
     <row r="15" spans="2:14">
       <c r="F15" s="5"/>
-      <c r="G15" s="10" t="str">
-        <f>L5</f>
-        <v>C</v>
-      </c>
-      <c r="H15" s="23" t="s">
+      <c r="G15" s="10">
+        <f>M5</f>
+        <v>0.96</v>
+      </c>
+      <c r="H15" s="26" t="s">
         <v>5</v>
       </c>
       <c r="I15" s="24"/>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="10">
+        <f>M7*M5</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="K15" s="12">
+        <v>-3000</v>
+      </c>
+      <c r="L15">
+        <v>350</v>
+      </c>
+      <c r="M15">
+        <f>K15+L15</f>
+        <v>-2650</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="D16" s="10">
+        <f>M7</f>
+        <v>0.05</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="F17" s="5"/>
+      <c r="G17" s="10">
+        <f>M8</f>
+        <v>0.04</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="24"/>
+      <c r="J17" s="10">
+        <f>M7*M8</f>
+        <v>2E-3</v>
+      </c>
+      <c r="K17" s="12">
+        <v>-3000</v>
+      </c>
+      <c r="L17">
+        <v>350</v>
+      </c>
+      <c r="M17">
+        <f>K17+L17</f>
+        <v>-2650</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="D21" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="J21" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="12"/>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="D16" s="10" t="str">
-        <f>L7</f>
-        <v>P_c</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="F17" s="5"/>
-      <c r="G17" s="10" t="str">
-        <f>L8</f>
-        <v>C_c</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" s="12"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="D21" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="23"/>
-      <c r="J21" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21" s="27"/>
-    </row>
-    <row r="22" spans="2:11">
+      <c r="K21" s="23"/>
+    </row>
+    <row r="22" spans="2:13">
       <c r="D22" s="6"/>
       <c r="E22" s="8" t="s">
         <v>11</v>
@@ -1731,37 +1767,87 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:13">
       <c r="D23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="2:11">
+      <c r="E23" s="6">
+        <f>J11</f>
+        <v>0.91199999999999992</v>
+      </c>
+      <c r="F23" s="6">
+        <f>J15</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G23" s="6">
+        <f>SUM(E23:F23)</f>
+        <v>0.96</v>
+      </c>
+      <c r="J23" s="7">
+        <v>350</v>
+      </c>
+      <c r="K23" s="7">
+        <f>J11</f>
+        <v>0.91199999999999992</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
       <c r="B24" s="4"/>
       <c r="D24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="2:11">
+      <c r="E24" s="6">
+        <f>J13</f>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F24" s="6">
+        <f>J17</f>
+        <v>2E-3</v>
+      </c>
+      <c r="G24" s="6">
+        <f>SUM(E24:F24)</f>
+        <v>0.04</v>
+      </c>
+      <c r="J24" s="7">
+        <v>-2650</v>
+      </c>
+      <c r="K24" s="7">
+        <f>J13+J15+J17</f>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
       <c r="D25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="E25" s="6">
+        <f>SUM(E23:E24)</f>
+        <v>0.95</v>
+      </c>
+      <c r="F25" s="6">
+        <f>SUM(F23:F24)</f>
+        <v>0.05</v>
+      </c>
+      <c r="G25" s="6">
+        <f>SUM(E25:F25)</f>
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <f>SUM(K23:K24)</f>
+        <v>0.99999999999999989</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:N6"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="B10:D10"/>
@@ -1772,19 +1858,10 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:N6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J6" r:id="rId1" xr:uid="{2F67F1B0-5C8D-4FB7-8F22-21C8A32AFF9F}"/>
+    <hyperlink ref="J6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1793,42 +1870,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5468B2D0-AB36-4652-A45F-79D6B6150643}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q45"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="11.9140625" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="13.9140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" customWidth="1"/>
-    <col min="10" max="10" width="7.4140625" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:17">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="6">
         <v>3000</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
       <c r="M3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1837,21 +1914,21 @@
       </c>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="6">
         <v>350</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
       <c r="M4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1860,14 +1937,14 @@
       </c>
     </row>
     <row r="6" spans="2:17">
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
       <c r="M6" s="6" t="s">
         <v>16</v>
       </c>
@@ -1876,14 +1953,14 @@
       </c>
     </row>
     <row r="7" spans="2:17">
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
       <c r="M7" s="6" t="s">
         <v>17</v>
       </c>
@@ -1900,42 +1977,42 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
+      <c r="B9" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
       <c r="N9" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:17">
       <c r="J10" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K10" s="10" t="str">
         <f ca="1">IF(I11="","",IF(I11&gt;=N7,"Yes",""))</f>
-        <v>Yes</v>
-      </c>
-      <c r="L10" s="23" t="s">
+        <v/>
+      </c>
+      <c r="L10" s="26" t="s">
         <v>5</v>
       </c>
       <c r="M10" s="24"/>
-      <c r="N10" s="15">
+      <c r="N10" s="15" t="str">
         <f ca="1">IF(K10="","",0)</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="16">
+        <v/>
+      </c>
+      <c r="O10" s="16" t="str">
         <f ca="1">IF(K10="","",$D$4)</f>
-        <v>350</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="2:17">
       <c r="F11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G11" s="10" t="str">
         <f ca="1">IF(E13&gt;=N6,"Yes","")</f>
@@ -1946,61 +2023,61 @@
       </c>
       <c r="I11" s="14">
         <f ca="1">IF(G11="","",RAND())</f>
-        <v>0.87712575362195555</v>
+        <v>2.3125692422200639E-2</v>
       </c>
       <c r="J11" s="14"/>
     </row>
     <row r="12" spans="2:17">
       <c r="J12" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K12" s="10" t="str">
         <f ca="1">IF(I11="","",IF(I11&gt;=N7,"","Yes"))</f>
-        <v/>
-      </c>
-      <c r="L12" s="23" t="s">
+        <v>Yes</v>
+      </c>
+      <c r="L12" s="26" t="s">
         <v>4</v>
       </c>
       <c r="M12" s="24"/>
-      <c r="N12" s="15" t="str">
+      <c r="N12" s="15">
         <f ca="1">IF(K12="","",-3000)</f>
-        <v/>
-      </c>
-      <c r="O12" s="16" t="str">
+        <v>-3000</v>
+      </c>
+      <c r="O12" s="16">
         <f ca="1">IF(K12="","",$D$4)</f>
-        <v/>
+        <v>350</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="2:17">
-      <c r="B13" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="32"/>
+      <c r="B13" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="31"/>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E13" s="14">
         <f ca="1">RAND()</f>
-        <v>0.59214855226186369</v>
+        <v>0.45790720750563052</v>
       </c>
       <c r="N13" s="5"/>
       <c r="Q13" s="19">
         <f ca="1">SUM(N10:O16)</f>
-        <v>350</v>
+        <v>-2650</v>
       </c>
     </row>
     <row r="14" spans="2:17">
       <c r="J14" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K14" s="10" t="str">
         <f ca="1">IF(I15="","",IF(I15&gt;=N7,"Yes",""))</f>
         <v/>
       </c>
-      <c r="L14" s="23" t="s">
+      <c r="L14" s="26" t="s">
         <v>5</v>
       </c>
       <c r="M14" s="24"/>
@@ -2015,7 +2092,7 @@
     </row>
     <row r="15" spans="2:17">
       <c r="F15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G15" s="10" t="str">
         <f ca="1">IF(E13&gt;=N6,"","Yes")</f>
@@ -2032,13 +2109,13 @@
     </row>
     <row r="16" spans="2:17">
       <c r="J16" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K16" s="10" t="str">
         <f ca="1">IF(I15="","",IF(I15&gt;=N7,"","Yes"))</f>
         <v/>
       </c>
-      <c r="L16" s="23" t="s">
+      <c r="L16" s="26" t="s">
         <v>4</v>
       </c>
       <c r="M16" s="24"/>
@@ -2052,24 +2129,24 @@
       </c>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="36"/>
+      <c r="C19" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="35"/>
     </row>
     <row r="20" spans="3:8">
       <c r="C20" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>52</v>
+        <v>26</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
+      <c r="F20" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
     </row>
     <row r="21" spans="3:8">
       <c r="C21" s="18">
@@ -2077,184 +2154,349 @@
       </c>
       <c r="D21" s="21">
         <f ca="1">Q13</f>
-        <v>350</v>
+        <v>-2650</v>
+      </c>
+      <c r="E21">
+        <f ca="1">IF(D21=350,1,0)</f>
+        <v>0</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G21" s="37"/>
-      <c r="H21" s="17"/>
+      <c r="H21" s="40">
+        <f ca="1">SUM(E21:E45)/25</f>
+        <v>0.84</v>
+      </c>
     </row>
     <row r="22" spans="3:8">
       <c r="C22" s="18">
         <v>2</v>
       </c>
-      <c r="D22" s="20"/>
+      <c r="D22" s="20">
+        <f t="dataTable" ref="D22:D45" dt2D="0" dtr="0" r1="C21" ca="1"/>
+        <v>350</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ref="E22:E45" si="0">IF(D22=350,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="F22" s="37" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G22" s="37"/>
-      <c r="H22" s="17"/>
+      <c r="H22" s="40">
+        <f ca="1">1-H21</f>
+        <v>0.16000000000000003</v>
+      </c>
     </row>
     <row r="23" spans="3:8">
       <c r="C23" s="18">
         <v>3</v>
       </c>
-      <c r="D23" s="20"/>
+      <c r="D23" s="20">
+        <v>350</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="F23" s="37" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G23" s="37"/>
-      <c r="H23" s="17"/>
+      <c r="H23" s="17">
+        <f ca="1">SUM(D21:D45)/25</f>
+        <v>-130</v>
+      </c>
     </row>
     <row r="24" spans="3:8">
       <c r="C24" s="18">
         <v>4</v>
       </c>
-      <c r="D24" s="20"/>
+      <c r="D24" s="20">
+        <v>350</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="3:8">
       <c r="C25" s="18">
         <v>5</v>
       </c>
-      <c r="D25" s="20"/>
+      <c r="D25" s="20">
+        <v>350</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="3:8">
       <c r="C26" s="18">
         <v>6</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="F26" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
+      <c r="D26" s="20">
+        <v>-2650</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
     </row>
     <row r="27" spans="3:8">
       <c r="C27" s="18">
         <v>7</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
+      <c r="D27" s="20">
+        <v>350</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
     </row>
     <row r="28" spans="3:8">
       <c r="C28" s="18">
         <v>8</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
+      <c r="D28" s="20">
+        <v>350</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
     </row>
     <row r="29" spans="3:8">
       <c r="C29" s="18">
         <v>9</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
+      <c r="D29" s="20">
+        <v>350</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
     </row>
     <row r="30" spans="3:8">
       <c r="C30" s="18">
         <v>10</v>
       </c>
-      <c r="D30" s="20"/>
+      <c r="D30" s="20">
+        <v>350</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="3:8">
       <c r="C31" s="18">
         <v>11</v>
       </c>
-      <c r="D31" s="20"/>
+      <c r="D31" s="20">
+        <v>350</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="3:8">
       <c r="C32" s="18">
         <v>12</v>
       </c>
-      <c r="D32" s="20"/>
-    </row>
-    <row r="33" spans="3:4">
+      <c r="D32" s="20">
+        <v>350</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
       <c r="C33" s="18">
         <v>13</v>
       </c>
-      <c r="D33" s="20"/>
-    </row>
-    <row r="34" spans="3:4">
+      <c r="D33" s="20">
+        <v>350</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
       <c r="C34" s="18">
         <v>14</v>
       </c>
-      <c r="D34" s="20"/>
-    </row>
-    <row r="35" spans="3:4">
+      <c r="D34" s="20">
+        <v>350</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
       <c r="C35" s="18">
         <v>15</v>
       </c>
-      <c r="D35" s="20"/>
-    </row>
-    <row r="36" spans="3:4">
+      <c r="D35" s="20">
+        <v>350</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
       <c r="C36" s="18">
         <v>16</v>
       </c>
-      <c r="D36" s="20"/>
-    </row>
-    <row r="37" spans="3:4">
+      <c r="D36" s="20">
+        <v>350</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
       <c r="C37" s="18">
         <v>17</v>
       </c>
-      <c r="D37" s="20"/>
-    </row>
-    <row r="38" spans="3:4">
+      <c r="D37" s="20">
+        <v>350</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5">
       <c r="C38" s="18">
         <v>18</v>
       </c>
-      <c r="D38" s="20"/>
-    </row>
-    <row r="39" spans="3:4">
+      <c r="D38" s="20">
+        <v>350</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5">
       <c r="C39" s="18">
         <v>19</v>
       </c>
-      <c r="D39" s="20"/>
-    </row>
-    <row r="40" spans="3:4">
+      <c r="D39" s="20">
+        <v>350</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
       <c r="C40" s="18">
         <v>20</v>
       </c>
-      <c r="D40" s="20"/>
-    </row>
-    <row r="41" spans="3:4">
+      <c r="D40" s="20">
+        <v>350</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
       <c r="C41" s="18">
         <v>21</v>
       </c>
-      <c r="D41" s="20"/>
-    </row>
-    <row r="42" spans="3:4">
+      <c r="D41" s="20">
+        <v>-2650</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5">
       <c r="C42" s="18">
         <v>22</v>
       </c>
-      <c r="D42" s="20"/>
-    </row>
-    <row r="43" spans="3:4">
+      <c r="D42" s="20">
+        <v>350</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
       <c r="C43" s="18">
         <v>23</v>
       </c>
-      <c r="D43" s="20"/>
-    </row>
-    <row r="44" spans="3:4">
+      <c r="D43" s="20">
+        <v>-2650</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
       <c r="C44" s="18">
         <v>24</v>
       </c>
-      <c r="D44" s="20"/>
-    </row>
-    <row r="45" spans="3:4">
+      <c r="D44" s="20">
+        <v>350</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5">
       <c r="C45" s="18">
         <v>25</v>
       </c>
-      <c r="D45" s="20"/>
+      <c r="D45" s="20">
+        <v>350</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="F26:H29"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F20:H20"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="G3:L3"/>
     <mergeCell ref="L12:M12"/>
@@ -2266,13 +2508,6 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="F26:H29"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F20:H20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2281,204 +2516,298 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFB5F7B-08DF-46BA-8DD1-C24146C206EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.4140625" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
-      <c r="B3" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
+      <c r="B3" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="18">
+        <v>21</v>
+      </c>
+      <c r="D5" s="18">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="18">
         <v>2</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="C6" s="18">
+        <v>24</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="18">
         <v>3</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="C7" s="18">
+        <v>23</v>
+      </c>
+      <c r="D7" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="18">
         <v>4</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="F8" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="C8" s="18">
+        <v>23</v>
+      </c>
+      <c r="D8" s="18">
+        <v>2</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="18">
         <v>5</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="F9" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="17"/>
+      <c r="C9" s="18">
+        <v>23</v>
+      </c>
+      <c r="D9" s="18">
+        <v>2</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="39"/>
+      <c r="H9" s="17">
+        <f>SUM(C5:C25)/SUM(C5:D25)</f>
+        <v>0.91619047619047622</v>
+      </c>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="18">
         <v>6</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="F10" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="17"/>
+      <c r="C10" s="18">
+        <v>21</v>
+      </c>
+      <c r="D10" s="18">
+        <v>4</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="39"/>
+      <c r="H10" s="17">
+        <f>1-H9</f>
+        <v>8.3809523809523778E-2</v>
+      </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="18">
         <v>7</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="F11" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="17"/>
+      <c r="C11" s="18">
+        <v>24</v>
+      </c>
+      <c r="D11" s="18">
+        <v>1</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="39"/>
+      <c r="H11" s="17">
+        <f>(SUM(C5:C25)*350-2650*SUM(D5:D25))/(SUM(C5:D25))</f>
+        <v>98.571428571428569</v>
+      </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="18">
         <v>8</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="C12" s="18">
+        <v>21</v>
+      </c>
+      <c r="D12" s="18">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="18">
         <v>9</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
+      <c r="C13" s="18">
+        <v>23</v>
+      </c>
+      <c r="D13" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="18">
         <v>10</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="C14" s="18">
+        <v>23</v>
+      </c>
+      <c r="D14" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="18">
         <v>11</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="C15" s="18">
+        <v>23</v>
+      </c>
+      <c r="D15" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="18">
         <v>12</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="C16" s="18">
+        <v>23</v>
+      </c>
+      <c r="D16" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="18">
         <v>13</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="18">
+        <v>24</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="18">
         <v>14</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="C18" s="18">
+        <v>22</v>
+      </c>
+      <c r="D18" s="18">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="18">
         <v>15</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="C19" s="18">
+        <v>24</v>
+      </c>
+      <c r="D19" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="18">
         <v>16</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="C20" s="18">
+        <v>23</v>
+      </c>
+      <c r="D20" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="18">
         <v>17</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="C21" s="18">
+        <v>23</v>
+      </c>
+      <c r="D21" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="18">
         <v>18</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="C22" s="18">
+        <v>23</v>
+      </c>
+      <c r="D22" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="18">
         <v>19</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
+      <c r="C23" s="18">
+        <v>23</v>
+      </c>
+      <c r="D23" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="18">
         <v>20</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="C24" s="18">
+        <v>24</v>
+      </c>
+      <c r="D24" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="18">
         <v>21</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
+      <c r="C25" s="18">
+        <v>23</v>
+      </c>
+      <c r="D25" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="18">
